--- a/Data/Input/RPADev-S04P01-CalculatingSums-Sample-Columns.xlsx
+++ b/Data/Input/RPADev-S04P01-CalculatingSums-Sample-Columns.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="12990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="12990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Method01" sheetId="5" r:id="rId1"/>
+    <sheet name="Method02" sheetId="6" r:id="rId2"/>
+    <sheet name="Method03" sheetId="7" r:id="rId3"/>
     <sheet name="Source" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -377,64 +377,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="1">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1">
+        <v>36</v>
+      </c>
+      <c r="C1">
+        <v>195</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1">
+        <v>3359</v>
+      </c>
+      <c r="B2" s="1">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>3394</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1">
+        <v>9072</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8996</v>
+      </c>
+      <c r="C3">
+        <v>18068</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1">
+        <v>623</v>
+      </c>
+      <c r="B4" s="1">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>679</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>324</v>
+      </c>
+      <c r="C5">
+        <v>335</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>6643</v>
+      </c>
+      <c r="B6" s="1">
+        <v>88942</v>
+      </c>
+      <c r="C6">
+        <v>95585</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1">
+        <v>3213</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4324</v>
+      </c>
+      <c r="C8">
+        <v>7537</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1">
+        <v>7732</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>7775</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>952</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>965</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1">
+        <v>3577</v>
+      </c>
+      <c r="B11" s="1">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <v>3668</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -443,66 +509,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3359</v>
+      </c>
+      <c r="B2" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>9072</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>623</v>
+      </c>
+      <c r="B4" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6643</v>
+      </c>
+      <c r="B6" s="1">
+        <v>88942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3213</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7732</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>952</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3577</v>
+      </c>
+      <c r="B11" s="1">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -518,48 +617,92 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1">
+        <v>3359</v>
+      </c>
+      <c r="B2" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1">
+        <v>9072</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8996</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>623</v>
+      </c>
+      <c r="B4" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>324</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1">
+        <v>6643</v>
+      </c>
+      <c r="B6" s="1">
+        <v>88942</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>3213</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4324</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1">
+        <v>7732</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>952</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1">
+        <v>3577</v>
+      </c>
+      <c r="B11" s="1">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -570,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
